--- a/config_8.31/game_module_config_cjj.xlsx
+++ b/config_8.31/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="993">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3789,6 +3789,18 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_031</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_055_xhns</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分赠礼</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_055_XHNSManager</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -4014,7 +4026,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4194,6 +4206,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4472,13 +4487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ338"/>
+  <dimension ref="A1:AJ339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C307" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C324" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B316" sqref="B316"/>
+      <selection pane="bottomRight" activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13227,6 +13242,32 @@
         <v>44403</v>
       </c>
     </row>
+    <row r="339" spans="1:9" ht="16.5">
+      <c r="A339" s="5">
+        <v>338</v>
+      </c>
+      <c r="B339" s="53" t="s">
+        <v>990</v>
+      </c>
+      <c r="C339" t="s">
+        <v>991</v>
+      </c>
+      <c r="D339" t="s">
+        <v>992</v>
+      </c>
+      <c r="E339" s="5">
+        <v>1</v>
+      </c>
+      <c r="F339" s="5">
+        <v>1</v>
+      </c>
+      <c r="G339" s="5">
+        <v>1</v>
+      </c>
+      <c r="I339" s="60">
+        <v>44445</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H338"/>
   <phoneticPr fontId="17" type="noConversion"/>
